--- a/experimental_data/GEC/Dufour2005.xlsx
+++ b/experimental_data/GEC/Dufour2005.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>Dufour2005 – Alterations in Hepatic Fructose Metabolism in Cirrhotic Patients</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Table 1</t>
   </si>
   <si>
+    <t>study</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>diagnosis</t>
+  </si>
+  <si>
+    <t>duf2005</t>
   </si>
   <si>
     <t>normal</t>
@@ -108,6 +114,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -345,15 +353,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>766440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>793080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -368,8 +376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="315720" y="3841560"/>
-          <a:ext cx="5764680" cy="2558880"/>
+          <a:off x="342720" y="3832560"/>
+          <a:ext cx="5764320" cy="2558520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,10 +397,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="H33" activeCellId="0" pane="topLeft" sqref="H33"/>
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -424,10 +432,10 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -445,22 +453,25 @@
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4" s="5">
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -471,409 +482,457 @@
       <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <f aca="false">F6/180*70</f>
+        <v>2.76111111111111</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <f aca="false">F7/180*70</f>
+        <v>2.87777777777778</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <f aca="false">F8/180*70</f>
+        <v>2.8</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <f aca="false">F9/180*70</f>
+        <v>2.37222222222222</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <f aca="false">F10/180*70</f>
+        <v>3.15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <f aca="false">F11/180*70</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <f aca="false">F12/180*70</f>
+        <v>1.82777777777778</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <f aca="false">F13/180*70</f>
+        <v>1.24444444444444</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <f aca="false">F14/180*70</f>
+        <v>1.51666666666667</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <f aca="false">F15/180*70</f>
+        <v>1.90555555555556</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <f aca="false">F16/180*70</f>
+        <v>1.98333333333333</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <f aca="false">F17/180*70</f>
+        <v>1.36111111111111</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <f aca="false">F18/180*70</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <f aca="false">E6/180*70</f>
-        <v>2.76111111111111</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+      <c r="C19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <f aca="false">E7/180*70</f>
-        <v>2.87777777777778</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <f aca="false">E8/180*70</f>
-        <v>2.8</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <f aca="false">E9/180*70</f>
-        <v>2.37222222222222</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+      <c r="G19" s="10" t="n">
+        <f aca="false">F19/180*70</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <f aca="false">E10/180*70</f>
-        <v>3.15</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="I19" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <f aca="false">E11/180*70</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <f aca="false">E12/180*70</f>
-        <v>1.82777777777778</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <f aca="false">E13/180*70</f>
-        <v>1.24444444444444</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <f aca="false">E14/180*70</f>
-        <v>1.51666666666667</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <f aca="false">E15/180*70</f>
-        <v>1.90555555555556</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <f aca="false">E16/180*70</f>
-        <v>1.98333333333333</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <f aca="false">E17/180*70</f>
-        <v>1.36111111111111</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <f aca="false">E18/180*70</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <f aca="false">E19/180*70</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
